--- a/PhanChiaCongViec.xlsx
+++ b/PhanChiaCongViec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Phân Công</t>
   </si>
@@ -49,6 +49,48 @@
   </si>
   <si>
     <t>Đầu vào là mã giáo viên, năm học và kì học, từ năm học và kì học xác định các chức vụ đảng và chức vụ chính quyền của giáo viên đang kiêm nghiệm từ đó xác định tỷ lệ miễn giảm. Tính tải yêu cầu bằng định mức tải - (định mức tải * tỷ lệ miễn giảm)/100, in ra thông tin: họ tên, đơn vị, chức vụ, học hàm, học vị, định mức tải đào tạo, định mức tải nghiên cứu, tỷ lệ miễn giảm, tải đào tạo yêu cầu và tải nghiên cứu yêu cầu trong năm học và kỳ học tương ứng của giáo viên đó.</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Khánh</t>
+  </si>
+  <si>
+    <t>Đầu vào là mã giáo viên, năm học, kì học, in ra danh sách các đồ án được hướng dẫn, in ra công tác khảo thí của giáo viên trong năm học và kì học đó</t>
+  </si>
+  <si>
+    <t>Đầu vào là mã giáo viên, năm học, kì học, tính tải khảo thí của giáo viên trong năm học và kì học đó, tải khảo thí bao gồm chấm thi, chấm đồ án và sửa bài thi</t>
+  </si>
+  <si>
+    <t>Đầu vào là mã giáo viên, năm học, kì học, tính tải hướng dẫn của giáo viên trong năm học và kì học đó, tải hướng dẫn bao gồm hướng dẫn đồ án môn học và hướng dẫn khác</t>
+  </si>
+  <si>
+    <t>Tải khảo thí</t>
+  </si>
+  <si>
+    <t>Tải hướng dẫn</t>
+  </si>
+  <si>
+    <t>In Danh sách đồ án, Công tác khảo thí</t>
+  </si>
+  <si>
+    <t>Ngô Văn Thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tải nghiên cứu khoa học , tải hội đồng </t>
+  </si>
+  <si>
+    <t>Đầu vào là mã giáo viên, năm học, kì học và mã đối tượng học để xác định các lớp học phần mà giáo viên dạy vào kì và năm học đó. Đầu ra đối với nghiên cứu khoa học : Tổng số tải của giáo viên theo năm học kỳ học. Trong đó loại tải có  công thức khác nhau , với Loại viết sách , bài báo có hai cách tinh tải với từng loại sách khác nhau . Đối với tải hội đồng đưa ra tổng số tải của tham gia hội đồng theo năm , kỳ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đầu vào là mã giáo viên , năm học và học kỳ , Đối với nghiên cứu khoa học hiển thị thông tin chi tiết về tải theo từng loại nghiên cứu khoa học , trong đó có thông tin về Tên đề tài , số thành viên tham gia , số lần , tính số giờ chuẩn </t>
+  </si>
+  <si>
+    <t>In thông tin chi tiết theo kỳ và năm học của nghiên cứu khoa hoc , hội đồng</t>
+  </si>
+  <si>
+    <t>Đầu vào là mã giáo viên, năm học và kì học, từ năm học và kì học .Từ đó đưa ra thông tin về số thành viên trong đề tài , và số tải cho từng thành viên ứng với các chức năng khác nhau ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỷ lệ phân chia thành quả sau hoàn thành nghiên cứu , số thành viên một đề tài </t>
   </si>
 </sst>
 </file>
@@ -99,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -108,14 +150,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -436,28 +484,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -465,8 +513,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -474,19 +522,79 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
